--- a/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR ASTAMBUL 2017.xlsx
+++ b/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR ASTAMBUL 2017.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Kuliah\semester6\KD\Studi Kasus KDD Genap 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Kuliah\semester6\KD\Data-Mining\Hands On 3 Studi Kasus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24B85B-8A3C-4369-ADE5-A62FD02EA4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B66743-0677-4E71-B8D1-E9CA563BCFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3720" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MARET " sheetId="1" r:id="rId1"/>
+    <sheet name="MARET" sheetId="1" r:id="rId1"/>
     <sheet name="APRIL" sheetId="7" r:id="rId2"/>
     <sheet name="MEI" sheetId="8" r:id="rId3"/>
     <sheet name="JUNI" sheetId="9" r:id="rId4"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1351,10 @@
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="20">
+        <f>AVERAGE(E13:J13)</f>
+        <v>10000</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2050,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3020,7 +3023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -4083,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5057,7 +5060,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6067,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9997,8 +10000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="O7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10970,7 +10973,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR ASTAMBUL 2017.xlsx
+++ b/Hands On 3 Studi Kasus/HARGA PANGAN DI PASAR ASTAMBUL 2017.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Kuliah\semester6\KD\Data-Mining\Hands On 3 Studi Kasus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B66743-0677-4E71-B8D1-E9CA563BCFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074031CE-9435-4F42-8BAA-0A26088347F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-3720" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARET" sheetId="1" r:id="rId1"/>
@@ -722,12 +722,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -737,28 +731,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,20 +764,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,18 +1110,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,30 +1193,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>61</v>
       </c>
@@ -1229,9 +1229,9 @@
       <c r="H8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1246,8 +1246,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -1269,8 +1269,8 @@
       <c r="H10" s="29">
         <v>14500</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f>AVERAGE(E10:J10)</f>
         <v>14625</v>
@@ -1295,8 +1295,8 @@
       <c r="H11" s="29">
         <v>12000</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f>AVERAGE(E11:J11)</f>
         <v>12000</v>
@@ -1321,8 +1321,8 @@
       <c r="H12" s="27">
         <v>8500</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f>AVERAGE(E12:J12)</f>
         <v>8500</v>
@@ -1349,8 +1349,8 @@
       <c r="H13" s="22">
         <v>10000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="20">
         <f>AVERAGE(E13:J13)</f>
         <v>10000</v>
@@ -1377,8 +1377,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -1404,8 +1404,8 @@
       <c r="H15" s="30">
         <v>25000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f>AVERAGE(E15:J15)</f>
         <v>25375</v>
@@ -1432,8 +1432,8 @@
       <c r="H16" s="22">
         <v>13000</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f>AVERAGE(E16:J16)</f>
         <v>13000</v>
@@ -1452,8 +1452,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -1475,8 +1475,8 @@
       <c r="H18" s="29">
         <v>33000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>32000</v>
@@ -1501,8 +1501,8 @@
       <c r="H19" s="27">
         <v>35000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>35250</v>
@@ -1521,8 +1521,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -1545,8 +1545,8 @@
       <c r="H21" s="20">
         <v>30000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>30000</v>
@@ -1572,8 +1572,8 @@
       <c r="H22" s="20">
         <v>50000</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>52500</v>
@@ -1599,8 +1599,8 @@
       <c r="H23" s="23">
         <v>100000</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
       <c r="K23" s="23">
         <f>AVERAGE(E23:J23)</f>
         <v>108750</v>
@@ -1619,8 +1619,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -1642,8 +1642,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -1667,8 +1667,8 @@
       <c r="H26" s="27">
         <v>36000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>37000</v>
@@ -1687,8 +1687,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -1710,8 +1710,8 @@
       <c r="H28" s="20">
         <v>20000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>20500</v>
@@ -1736,8 +1736,8 @@
       <c r="H29" s="21">
         <v>2300</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2275</v>
@@ -1764,8 +1764,8 @@
       <c r="H30" s="22">
         <v>12000</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>12375</v>
@@ -1792,8 +1792,8 @@
       <c r="H31" s="22">
         <v>7000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6625</v>
@@ -2014,6 +2014,19 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
@@ -2030,19 +2043,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2053,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2083,18 +2083,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2166,30 +2166,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>119</v>
       </c>
@@ -2203,8 +2203,8 @@
         <v>122</v>
       </c>
       <c r="I8" s="61"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -2219,8 +2219,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -2242,8 +2242,8 @@
       <c r="H10" s="29">
         <v>12500</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>12187.5</v>
@@ -2268,8 +2268,8 @@
       <c r="H11" s="29">
         <v>10000</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>9843.75</v>
@@ -2294,8 +2294,8 @@
       <c r="H12" s="27">
         <v>8750</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8281.25</v>
@@ -2322,8 +2322,8 @@
       <c r="H13" s="22">
         <v>11000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>11000</v>
@@ -2350,8 +2350,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -2377,8 +2377,8 @@
       <c r="H15" s="30">
         <v>26000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>26250</v>
@@ -2405,8 +2405,8 @@
       <c r="H16" s="22">
         <v>11500</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>11875</v>
@@ -2425,8 +2425,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -2448,8 +2448,8 @@
       <c r="H18" s="29">
         <v>20000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>20000</v>
@@ -2474,8 +2474,8 @@
       <c r="H19" s="27">
         <v>17000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>17000</v>
@@ -2494,8 +2494,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -2518,8 +2518,8 @@
       <c r="H21" s="20">
         <v>35000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>35000</v>
@@ -2545,8 +2545,8 @@
       <c r="H22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20"/>
       <c r="L22" s="1"/>
       <c r="Q22" s="19"/>
@@ -2569,8 +2569,8 @@
       <c r="H23" s="21">
         <v>80000</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>51250</v>
@@ -2589,8 +2589,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -2612,8 +2612,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2637,8 @@
       <c r="H26" s="27">
         <v>23000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>21250</v>
@@ -2657,8 +2657,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -2680,8 +2680,8 @@
       <c r="H28" s="20">
         <v>27000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>25500</v>
@@ -2706,8 +2706,8 @@
       <c r="H29" s="21">
         <v>2500</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2350</v>
@@ -2734,8 +2734,8 @@
       <c r="H30" s="22">
         <v>10000</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>10250</v>
@@ -2762,8 +2762,8 @@
       <c r="H31" s="22">
         <v>6000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6250</v>
@@ -2984,11 +2984,18 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -3001,18 +3008,11 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3060,25 +3060,25 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3214,37 +3214,37 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="56" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="48" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="3" t="s">
         <v>50</v>
       </c>
@@ -3278,11 +3278,11 @@
       <c r="O10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="57"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="49"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
@@ -3304,8 +3304,8 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
       <c r="R11" s="22"/>
       <c r="S11" s="1"/>
     </row>
@@ -3328,8 +3328,8 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
       <c r="R12" s="22"/>
       <c r="S12" s="1"/>
     </row>
@@ -3352,8 +3352,8 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
       <c r="R13" s="22"/>
       <c r="S13" s="1"/>
     </row>
@@ -3376,8 +3376,8 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
       <c r="R14" s="22"/>
       <c r="S14" s="1"/>
     </row>
@@ -3400,8 +3400,8 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
       <c r="R15" s="22"/>
       <c r="S15" s="1"/>
     </row>
@@ -3424,8 +3424,8 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
       <c r="R16" s="22"/>
       <c r="S16" s="1"/>
     </row>
@@ -3448,8 +3448,8 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
       <c r="R17" s="22"/>
       <c r="S17" s="1"/>
     </row>
@@ -3472,8 +3472,8 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
       <c r="R18" s="22"/>
       <c r="S18" s="1"/>
     </row>
@@ -3496,8 +3496,8 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
       <c r="R19" s="22"/>
       <c r="S19" s="1"/>
     </row>
@@ -3520,8 +3520,8 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
       <c r="R20" s="22"/>
       <c r="S20" s="1"/>
       <c r="X20" s="19"/>
@@ -3545,8 +3545,8 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
       <c r="R21" s="22"/>
       <c r="S21" s="1"/>
       <c r="X21" s="19"/>
@@ -3570,8 +3570,8 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
       <c r="R22" s="22"/>
       <c r="S22" s="1"/>
     </row>
@@ -3594,8 +3594,8 @@
       <c r="M23" s="36"/>
       <c r="N23" s="22"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
       <c r="R23" s="22"/>
       <c r="S23" s="1"/>
     </row>
@@ -3618,8 +3618,8 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
       <c r="R24" s="22"/>
       <c r="S24" s="1"/>
     </row>
@@ -3642,8 +3642,8 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
       <c r="R25" s="22"/>
       <c r="S25" s="1"/>
     </row>
@@ -3666,8 +3666,8 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
       <c r="R26" s="22"/>
       <c r="S26" s="1"/>
     </row>
@@ -3690,8 +3690,8 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
       <c r="R27" s="22"/>
       <c r="S27" s="1"/>
     </row>
@@ -3714,8 +3714,8 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
       <c r="R28" s="22"/>
       <c r="S28" s="1"/>
     </row>
@@ -4052,6 +4052,21 @@
     <row r="49" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P27:Q27"/>
@@ -4061,21 +4076,6 @@
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:Q9"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4116,18 +4116,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4199,30 +4199,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>65</v>
       </c>
@@ -4235,9 +4235,9 @@
       <c r="H8" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4252,8 +4252,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -4275,8 +4275,8 @@
       <c r="H10" s="29">
         <v>15500</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>14787.5</v>
@@ -4301,8 +4301,8 @@
       <c r="H11" s="29">
         <v>12000</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>12000</v>
@@ -4327,8 +4327,8 @@
       <c r="H12" s="27">
         <v>9000</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8625</v>
@@ -4355,8 +4355,8 @@
       <c r="H13" s="22">
         <v>11000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>10500</v>
@@ -4383,8 +4383,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -4410,8 +4410,8 @@
       <c r="H15" s="30">
         <v>26000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>26250</v>
@@ -4438,8 +4438,8 @@
       <c r="H16" s="22">
         <v>13000</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -4458,8 +4458,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -4481,8 +4481,8 @@
       <c r="H18" s="29">
         <v>30000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>31250</v>
@@ -4507,8 +4507,8 @@
       <c r="H19" s="27">
         <v>38000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>35750</v>
@@ -4527,8 +4527,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -4551,8 +4551,8 @@
       <c r="H21" s="20">
         <v>25000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>27500</v>
@@ -4578,8 +4578,8 @@
       <c r="H22" s="20">
         <v>30000</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>40000</v>
@@ -4605,8 +4605,8 @@
       <c r="H23" s="21">
         <v>80000</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>95000</v>
@@ -4625,8 +4625,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -4648,8 +4648,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -4673,8 +4673,8 @@
       <c r="H26" s="27">
         <v>38000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>38000</v>
@@ -4693,8 +4693,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -4716,8 +4716,8 @@
       <c r="H28" s="20">
         <v>21000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>21000</v>
@@ -4742,8 +4742,8 @@
       <c r="H29" s="21">
         <v>2300</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2325</v>
@@ -4770,8 +4770,8 @@
       <c r="H30" s="22">
         <v>13500</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>12875</v>
@@ -4798,8 +4798,8 @@
       <c r="H31" s="22">
         <v>7000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6875</v>
@@ -5020,17 +5020,11 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
@@ -5044,11 +5038,17 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5089,18 +5089,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -5172,30 +5172,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>69</v>
       </c>
@@ -5211,8 +5211,8 @@
       <c r="I8" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -5227,8 +5227,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -5250,10 +5250,10 @@
       <c r="H10" s="29">
         <v>13250</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="40">
         <v>14500</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>14000</v>
@@ -5278,10 +5278,10 @@
       <c r="H11" s="29">
         <v>10000</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="40">
         <v>12000</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>10960</v>
@@ -5306,10 +5306,10 @@
       <c r="H12" s="27">
         <v>8500</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="55">
         <v>8500</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8500</v>
@@ -5336,10 +5336,10 @@
       <c r="H13" s="22">
         <v>11000</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <v>11000</v>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>10800</v>
@@ -5366,10 +5366,10 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -5395,10 +5395,10 @@
       <c r="H15" s="30">
         <v>32000</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="37">
         <v>32000</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>27800</v>
@@ -5425,10 +5425,10 @@
       <c r="H16" s="22">
         <v>13000</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="39">
         <v>12500</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>12700</v>
@@ -5447,8 +5447,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -5470,10 +5470,10 @@
       <c r="H18" s="29">
         <v>25000</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="40">
         <v>25000</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>26000</v>
@@ -5498,10 +5498,10 @@
       <c r="H19" s="27">
         <v>52000</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="55">
         <v>58000</v>
       </c>
-      <c r="J19" s="45"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>49600</v>
@@ -5520,8 +5520,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -5544,10 +5544,10 @@
       <c r="H21" s="20">
         <v>15000</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="40">
         <v>50000</v>
       </c>
-      <c r="J21" s="47"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>24000</v>
@@ -5573,10 +5573,10 @@
       <c r="H22" s="20">
         <v>25000</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="40">
         <v>40000</v>
       </c>
-      <c r="J22" s="47"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>30000</v>
@@ -5602,10 +5602,10 @@
       <c r="H23" s="21">
         <v>45000</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="55">
         <v>40000</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>42000</v>
@@ -5624,8 +5624,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -5647,10 +5647,10 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -5674,10 +5674,10 @@
       <c r="H26" s="27">
         <v>35000</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="55">
         <v>34000</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>35800</v>
@@ -5696,8 +5696,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -5719,10 +5719,10 @@
       <c r="H28" s="20">
         <v>23000</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="40">
         <v>22000</v>
       </c>
-      <c r="J28" s="47"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>22000</v>
@@ -5747,10 +5747,10 @@
       <c r="H29" s="21">
         <v>2300</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="55">
         <v>2500</v>
       </c>
-      <c r="J29" s="45"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2340</v>
@@ -5777,10 +5777,10 @@
       <c r="H30" s="22">
         <v>11500</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="37">
         <v>13500</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>11600</v>
@@ -5807,10 +5807,10 @@
       <c r="H31" s="22">
         <v>7000</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="39">
         <v>7000</v>
       </c>
-      <c r="J31" s="41"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6500</v>
@@ -6031,17 +6031,11 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
@@ -6055,11 +6049,17 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6100,18 +6100,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -6183,30 +6183,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>74</v>
       </c>
@@ -6219,9 +6219,9 @@
       <c r="H8" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6236,8 +6236,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -6259,8 +6259,8 @@
       <c r="H10" s="29">
         <v>13250</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>13562.5</v>
@@ -6285,8 +6285,8 @@
       <c r="H11" s="29">
         <v>10000</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>10900</v>
@@ -6311,8 +6311,8 @@
       <c r="H12" s="27">
         <v>8500</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8500</v>
@@ -6339,8 +6339,8 @@
       <c r="H13" s="22">
         <v>11000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>10250</v>
@@ -6367,8 +6367,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -6394,8 +6394,8 @@
       <c r="H15" s="30">
         <v>26000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>27500</v>
@@ -6422,8 +6422,8 @@
       <c r="H16" s="22">
         <v>12500</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>12500</v>
@@ -6442,8 +6442,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -6465,8 +6465,8 @@
       <c r="H18" s="29">
         <v>40000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>34000</v>
@@ -6491,8 +6491,8 @@
       <c r="H19" s="27">
         <v>30000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>37500</v>
@@ -6511,8 +6511,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -6535,8 +6535,8 @@
       <c r="H21" s="20">
         <v>35000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>32500</v>
@@ -6562,8 +6562,8 @@
       <c r="H22" s="20">
         <v>33000</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>28000</v>
@@ -6589,8 +6589,8 @@
       <c r="H23" s="21">
         <v>60000</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>47500</v>
@@ -6609,8 +6609,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -6632,8 +6632,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -6657,8 +6657,8 @@
       <c r="H26" s="27">
         <v>20000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>19500</v>
@@ -6677,8 +6677,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -6700,8 +6700,8 @@
       <c r="H28" s="20">
         <v>21000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>22000</v>
@@ -6726,8 +6726,8 @@
       <c r="H29" s="21">
         <v>2200</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2350</v>
@@ -6754,8 +6754,8 @@
       <c r="H30" s="22">
         <v>11000</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>11000</v>
@@ -6782,8 +6782,8 @@
       <c r="H31" s="22">
         <v>6000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6125</v>
@@ -7004,17 +7004,11 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
@@ -7028,11 +7022,17 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7043,7 +7043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -7073,18 +7073,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -7156,30 +7156,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>78</v>
       </c>
@@ -7195,8 +7195,8 @@
       <c r="I8" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7211,8 +7211,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -7234,10 +7234,10 @@
       <c r="H10" s="29">
         <v>12000</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="40">
         <v>13250</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>13000</v>
@@ -7262,10 +7262,10 @@
       <c r="H11" s="29">
         <v>10250</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="40">
         <v>10800</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>10070</v>
@@ -7290,10 +7290,10 @@
       <c r="H12" s="27">
         <v>8500</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="55">
         <v>8500</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8250</v>
@@ -7320,10 +7320,10 @@
       <c r="H13" s="22">
         <v>12000</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <v>12000</v>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>11600</v>
@@ -7350,10 +7350,10 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -7379,10 +7379,10 @@
       <c r="H15" s="30">
         <v>26000</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="37">
         <v>28000</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>26800</v>
@@ -7409,10 +7409,10 @@
       <c r="H16" s="22">
         <v>12500</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="39">
         <v>13000</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>12800</v>
@@ -7431,8 +7431,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -7454,10 +7454,10 @@
       <c r="H18" s="29">
         <v>33000</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="40">
         <v>30000</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>34800</v>
@@ -7482,10 +7482,10 @@
       <c r="H19" s="27">
         <v>25000</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="55">
         <v>25000</v>
       </c>
-      <c r="J19" s="45"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>26000</v>
@@ -7504,8 +7504,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -7528,10 +7528,10 @@
       <c r="H21" s="20">
         <v>35000</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="40">
         <v>30000</v>
       </c>
-      <c r="J21" s="47"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>31000</v>
@@ -7557,10 +7557,10 @@
       <c r="H22" s="20">
         <v>30000</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="40">
         <v>25000</v>
       </c>
-      <c r="J22" s="47"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>28600</v>
@@ -7586,10 +7586,10 @@
       <c r="H23" s="21">
         <v>50000</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="55">
         <v>50000</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>56000</v>
@@ -7608,8 +7608,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -7631,10 +7631,10 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -7658,10 +7658,10 @@
       <c r="H26" s="27">
         <v>20500</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="55">
         <v>20000</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>19700</v>
@@ -7680,8 +7680,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -7703,10 +7703,10 @@
       <c r="H28" s="20">
         <v>24000</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="40">
         <v>24000</v>
       </c>
-      <c r="J28" s="47"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>22800</v>
@@ -7731,10 +7731,10 @@
       <c r="H29" s="21">
         <v>2200</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="55">
         <v>2000</v>
       </c>
-      <c r="J29" s="45"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2160</v>
@@ -7761,10 +7761,10 @@
       <c r="H30" s="22">
         <v>10000</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="37">
         <v>11000</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>10800</v>
@@ -7791,10 +7791,10 @@
       <c r="H31" s="22">
         <v>6000</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="39">
         <v>6000</v>
       </c>
-      <c r="J31" s="41"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6100</v>
@@ -8015,17 +8015,11 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
@@ -8039,11 +8033,17 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8084,18 +8084,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -8167,30 +8167,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>83</v>
       </c>
@@ -8203,9 +8203,9 @@
       <c r="H8" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8220,8 +8220,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -8243,8 +8243,8 @@
       <c r="H10" s="29">
         <v>12000</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>12000</v>
@@ -8269,8 +8269,8 @@
       <c r="H11" s="29">
         <v>9500</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>9375</v>
@@ -8295,8 +8295,8 @@
       <c r="H12" s="27">
         <v>7250</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>7375</v>
@@ -8323,8 +8323,8 @@
       <c r="H13" s="22">
         <v>13000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>12750</v>
@@ -8351,8 +8351,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -8378,8 +8378,8 @@
       <c r="H15" s="30">
         <v>26000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>27000</v>
@@ -8406,8 +8406,8 @@
       <c r="H16" s="22">
         <v>12000</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>12250</v>
@@ -8426,8 +8426,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -8449,8 +8449,8 @@
       <c r="H18" s="29">
         <v>20000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>22000</v>
@@ -8475,8 +8475,8 @@
       <c r="H19" s="27">
         <v>24000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>24750</v>
@@ -8495,8 +8495,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -8519,8 +8519,8 @@
       <c r="H21" s="20">
         <v>32000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>28000</v>
@@ -8546,8 +8546,8 @@
       <c r="H22" s="20">
         <v>30000</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>28750</v>
@@ -8573,8 +8573,8 @@
       <c r="H23" s="21">
         <v>40000</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>46250</v>
@@ -8593,8 +8593,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -8616,8 +8616,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -8641,8 +8641,8 @@
       <c r="H26" s="27">
         <v>17000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>20000</v>
@@ -8661,8 +8661,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -8684,8 +8684,8 @@
       <c r="H28" s="20">
         <v>22000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>22500</v>
@@ -8710,8 +8710,8 @@
       <c r="H29" s="21">
         <v>2200</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2237.5</v>
@@ -8738,8 +8738,8 @@
       <c r="H30" s="22">
         <v>10000</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>10000</v>
@@ -8766,8 +8766,8 @@
       <c r="H31" s="22">
         <v>6000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
@@ -8988,17 +8988,11 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
@@ -9012,11 +9006,17 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9057,18 +9057,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -9140,30 +9140,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>87</v>
       </c>
@@ -9176,9 +9176,9 @@
       <c r="H8" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9193,8 +9193,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -9216,8 +9216,8 @@
       <c r="H10" s="29">
         <v>12000</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>12000</v>
@@ -9242,8 +9242,8 @@
       <c r="H11" s="29">
         <v>9500</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>9500</v>
@@ -9268,8 +9268,8 @@
       <c r="H12" s="27">
         <v>7250</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>7500</v>
@@ -9296,8 +9296,8 @@
       <c r="H13" s="22">
         <v>12000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>12375</v>
@@ -9324,8 +9324,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -9351,8 +9351,8 @@
       <c r="H15" s="30">
         <v>26000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>27000</v>
@@ -9379,8 +9379,8 @@
       <c r="H16" s="22">
         <v>12000</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>12000</v>
@@ -9399,8 +9399,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -9422,8 +9422,8 @@
       <c r="H18" s="29">
         <v>14000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>18000</v>
@@ -9448,8 +9448,8 @@
       <c r="H19" s="27">
         <v>20000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>20500</v>
@@ -9468,8 +9468,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -9492,8 +9492,8 @@
       <c r="H21" s="20">
         <v>25000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>30000</v>
@@ -9519,8 +9519,8 @@
       <c r="H22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20">
         <f>AVERAGE(E22:J22)</f>
         <v>35000</v>
@@ -9546,8 +9546,8 @@
       <c r="H23" s="21">
         <v>30000</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>34500</v>
@@ -9566,8 +9566,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -9589,8 +9589,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -9614,8 +9614,8 @@
       <c r="H26" s="27">
         <v>17000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>16750</v>
@@ -9634,8 +9634,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -9657,8 +9657,8 @@
       <c r="H28" s="20">
         <v>21000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>21875</v>
@@ -9683,8 +9683,8 @@
       <c r="H29" s="21">
         <v>2000</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2075</v>
@@ -9711,8 +9711,8 @@
       <c r="H30" s="22">
         <v>11000</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>11000</v>
@@ -9739,8 +9739,8 @@
       <c r="H31" s="22">
         <v>6000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6125</v>
@@ -9961,11 +9961,18 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -9978,18 +9985,11 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10000,7 +10000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="P7" sqref="O7:P7"/>
     </sheetView>
   </sheetViews>
@@ -10030,18 +10030,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -10113,30 +10113,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>108</v>
       </c>
@@ -10152,8 +10152,8 @@
       <c r="I8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -10168,8 +10168,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -10191,8 +10191,8 @@
       <c r="H10" s="29">
         <v>12500</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>12500</v>
@@ -10217,8 +10217,8 @@
       <c r="H11" s="29">
         <v>10625</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>10156.25</v>
@@ -10243,8 +10243,8 @@
       <c r="H12" s="27">
         <v>8125</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>7906.25</v>
@@ -10271,8 +10271,8 @@
       <c r="H13" s="22">
         <v>11000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>11250</v>
@@ -10299,8 +10299,8 @@
       <c r="H14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -10326,8 +10326,8 @@
       <c r="H15" s="30">
         <v>20000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>24750</v>
@@ -10354,8 +10354,8 @@
       <c r="H16" s="22">
         <v>12500</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>12250</v>
@@ -10374,8 +10374,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -10397,8 +10397,8 @@
       <c r="H18" s="29">
         <v>18000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>17250</v>
@@ -10423,8 +10423,8 @@
       <c r="H19" s="27">
         <v>15000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>17250</v>
@@ -10443,8 +10443,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -10467,8 +10467,8 @@
       <c r="H21" s="20">
         <v>30000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>28750</v>
@@ -10494,8 +10494,8 @@
       <c r="H22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20"/>
       <c r="L22" s="1"/>
       <c r="Q22" s="19"/>
@@ -10518,8 +10518,8 @@
       <c r="H23" s="21">
         <v>40000</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>35500</v>
@@ -10538,8 +10538,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -10561,8 +10561,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -10586,8 +10586,8 @@
       <c r="H26" s="27">
         <v>15000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>15500</v>
@@ -10606,8 +10606,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -10629,8 +10629,8 @@
       <c r="H28" s="20">
         <v>21000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>21000</v>
@@ -10655,8 +10655,8 @@
       <c r="H29" s="21">
         <v>2100</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2025</v>
@@ -10683,8 +10683,8 @@
       <c r="H30" s="22">
         <v>11000</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>10875</v>
@@ -10711,8 +10711,8 @@
       <c r="H31" s="22">
         <v>6000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
@@ -10933,17 +10933,11 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
@@ -10957,11 +10951,17 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10972,7 +10972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -11002,18 +11002,18 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -11085,30 +11085,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="48" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="34" t="s">
         <v>114</v>
       </c>
@@ -11122,8 +11122,8 @@
         <v>117</v>
       </c>
       <c r="I8" s="61"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11138,8 +11138,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1"/>
     </row>
@@ -11159,8 +11159,8 @@
       <c r="H10" s="29">
         <v>12500</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
       <c r="K10" s="20">
         <f t="shared" ref="K10:K16" si="0">AVERAGE(E10:J10)</f>
         <v>12291.666666666666</v>
@@ -11183,8 +11183,8 @@
       <c r="H11" s="29">
         <v>9375</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -11207,8 +11207,8 @@
       <c r="H12" s="27">
         <v>8125</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>8125</v>
@@ -11233,8 +11233,8 @@
       <c r="H13" s="22">
         <v>11000</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>11666.666666666666</v>
@@ -11255,8 +11255,8 @@
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="21" t="s">
         <v>43</v>
       </c>
@@ -11280,8 +11280,8 @@
       <c r="H15" s="30">
         <v>28000</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>27333.333333333332</v>
@@ -11306,8 +11306,8 @@
       <c r="H16" s="22">
         <v>11500</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="22">
         <f t="shared" si="0"/>
         <v>11666.666666666666</v>
@@ -11326,8 +11326,8 @@
       <c r="F17" s="20"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="1"/>
     </row>
@@ -11347,8 +11347,8 @@
       <c r="H18" s="29">
         <v>20000</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20">
         <f>AVERAGE(E18:J18)</f>
         <v>19333.333333333332</v>
@@ -11371,8 +11371,8 @@
       <c r="H19" s="27">
         <v>19000</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="21">
         <f>AVERAGE(E19:J19)</f>
         <v>19000</v>
@@ -11391,8 +11391,8 @@
       <c r="F20" s="19"/>
       <c r="G20" s="28"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="19"/>
@@ -11413,8 +11413,8 @@
       <c r="H21" s="20">
         <v>35000</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="20">
         <f>AVERAGE(E21:J21)</f>
         <v>30000</v>
@@ -11438,8 +11438,8 @@
       <c r="H22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="20"/>
       <c r="L22" s="1"/>
       <c r="Q22" s="19"/>
@@ -11460,8 +11460,8 @@
       <c r="H23" s="21">
         <v>60000</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="21">
         <f>AVERAGE(E23:J23)</f>
         <v>46666.666666666664</v>
@@ -11480,8 +11480,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
     </row>
@@ -11501,8 +11501,8 @@
       <c r="H25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="25" t="s">
         <v>43</v>
       </c>
@@ -11524,8 +11524,8 @@
       <c r="H26" s="27">
         <v>19000</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="21">
         <f>AVERAGE(E26:J26)</f>
         <v>19000</v>
@@ -11544,8 +11544,8 @@
       <c r="F27" s="19"/>
       <c r="G27" s="28"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="20"/>
       <c r="L27" s="1"/>
     </row>
@@ -11565,8 +11565,8 @@
       <c r="H28" s="20">
         <v>24000</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="20">
         <f>AVERAGE(E28:J28)</f>
         <v>22833.333333333332</v>
@@ -11589,8 +11589,8 @@
       <c r="H29" s="21">
         <v>2200</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="21">
         <f>AVERAGE(E29:J29)</f>
         <v>2100</v>
@@ -11615,8 +11615,8 @@
       <c r="H30" s="22">
         <v>10000</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
       <c r="K30" s="22">
         <f>AVERAGE(E30:J30)</f>
         <v>10333.333333333334</v>
@@ -11641,8 +11641,8 @@
       <c r="H31" s="22">
         <v>6000</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="22">
         <f>AVERAGE(E31:J31)</f>
         <v>6000</v>
@@ -11863,11 +11863,18 @@
     <row r="52" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -11880,18 +11887,11 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
